--- a/myess/static/files/waibao_insert_template.xlsx
+++ b/myess/static/files/waibao_insert_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21540" windowHeight="4890"/>
+    <workbookView windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <t>项目名字</t>
   </si>
   <si>
-    <t>发给数据时间</t>
+    <t>发给数据时间(xxxx-xx-xx)</t>
   </si>
   <si>
-    <t>结束标注时间</t>
+    <t>结束标注时间(xxxx-xx-xx)</t>
   </si>
   <si>
     <t>图片数量</t>
@@ -48,9 +48,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -70,9 +70,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,6 +121,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -94,52 +177,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,59 +205,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -221,67 +221,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,109 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +422,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,13 +442,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,7 +461,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,32 +496,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,94 +511,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,49 +607,49 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -982,10 +982,15 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="3" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -1017,6 +1022,12 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+      <formula1>"杂物,脏污,行人扶梯一米栏,xfy-2D-LPCD,50-xfy-person_orient,红绿灯,S线数据,室内可通行,75车库车辆行人,111室外车辆行人"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1"/>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/myess/static/files/waibao_insert_template.xlsx
+++ b/myess/static/files/waibao_insert_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12195"/>
+    <workbookView windowWidth="28800" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>项目名字</t>
   </si>
   <si>
     <t>发给数据时间(xxxx-xx-xx)</t>
-  </si>
-  <si>
-    <t>结束标注时间(xxxx-xx-xx)</t>
   </si>
   <si>
     <t>图片数量</t>
@@ -37,9 +34,6 @@
     <t>单价</t>
   </si>
   <si>
-    <t>金额</t>
-  </si>
-  <si>
     <t>外包名字</t>
   </si>
 </sst>
@@ -48,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,7 +64,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,22 +85,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,6 +101,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -121,36 +140,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -159,50 +186,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -215,187 +209,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,17 +421,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,16 +457,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,13 +486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,124 +505,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,19 +631,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -979,20 +973,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="3" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="13.5022222222222" customWidth="1"/>
+    <col min="2" max="2" width="23.5022222222222" customWidth="1"/>
+    <col min="4" max="4" width="10.8755555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1014,12 +1008,6 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/myess/static/files/waibao_insert_template.xlsx
+++ b/myess/static/files/waibao_insert_template.xlsx
@@ -42,9 +42,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -64,30 +64,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,11 +101,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,89 +199,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -209,91 +209,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,91 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -443,15 +458,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,17 +492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,145 +505,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -976,7 +976,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1012,7 +1012,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
-      <formula1>"杂物,脏污,行人扶梯一米栏,xfy-2D-LPCD,50-xfy-person_orient,红绿灯,S线数据,室内可通行,75车库车辆行人,111室外车辆行人"</formula1>
+      <formula1>"杂物,脏污,行人扶梯一米栏,xfy-2D-LPCD,50-xfy-person_orient,红绿灯,S线数据,室内可通行,75车库车辆行人,111室外车辆行人,AIOT清洁行为识别,75车库漏水检测"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1"/>
   </dataValidations>
